--- a/August 2018/Weekend-Weekday/Validation/Valid_August2018(2Periods).xlsx
+++ b/August 2018/Weekend-Weekday/Validation/Valid_August2018(2Periods).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\August 2018\Weekend-Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B2791E-BFF6-4658-A167-2B080507BB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2CEE25-CC61-4E2B-9C45-DB1DE67BBE31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{781D6ABA-93B1-4FE9-BA32-A7780DBBD5F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{E5FB6BF4-B64B-4C70-BA06-752559B0E2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E28C09-1E9C-4C20-B70D-7D5E10BD40E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D192C42A-5249-4FFD-926F-BE94505DB195}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1838,65 +1838,65 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{C7E84C85-4CBC-46AD-A58A-EAB51C8503EA}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{FC412A5D-85FC-46CD-8462-55CBD041306D}"/>
-    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{9DC0CCEE-B8AF-4660-938E-BE417437EC2A}"/>
-    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{F0D7DD1D-8825-48E2-B109-80FA9526721F}"/>
-    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{1E52633B-E2E6-4743-93E5-096731203CC2}"/>
-    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{3B2D2393-FF5C-481C-9FA0-634011289436}"/>
-    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{A8A756B0-B75B-45B1-A66B-B6461F80983D}"/>
-    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{F4956E8C-52C3-4C71-A8E9-34177C26BB63}"/>
-    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{3A297272-7562-4877-8E17-59046EEFA21D}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{8192B7B1-D35C-4673-AF85-066EB85982E9}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{0AD462EA-B700-4699-8C9B-0BD28C8CFF81}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{85EEC491-FE01-442A-B876-163E9D41837C}"/>
-    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{57A334E7-D0E1-405A-B95C-80B1F8D24781}"/>
-    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{46A81D5F-09B3-4C6C-88B0-30896531CD2A}"/>
-    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{3E60745F-960D-45DE-863D-FBCEA741C02A}"/>
-    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{DBE3C1CA-1E05-4B0C-9F53-65C5AF459300}"/>
-    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{7CC3CE8E-1985-4404-AB6E-C05ED1EEB571}"/>
-    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{32009824-439B-43A8-9C04-45B2C811B991}"/>
-    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{A483CB4C-E755-402E-9BF9-C71FAA79D8C3}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{D4442EA3-B968-483F-BC10-28150A5D5E34}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{D65F078E-5600-4A2D-8D7E-166C7D40844D}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{CF807D30-66B2-4524-AAB2-16E39E9BD60A}"/>
-    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{53AFA0E2-AAC0-44B7-8048-E241E551800C}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{CBDB1F05-D520-4BA5-817D-28BBBE63962E}"/>
-    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{652B0B9A-0DF9-4FA8-9C88-A4348945F024}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{B262538E-2A4D-4BF9-AA1E-17AD48C59D4C}"/>
-    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{51C70BC7-95A9-44CE-893B-474F32762A0A}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{22705726-F482-4E0D-BF92-CF8262C8888F}"/>
-    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{A6DB4BE6-7ECA-432F-8057-33A9C4DFD3F3}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{674A5F00-AFD5-4403-B49B-B62DA4420892}"/>
-    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{943B5981-E3E9-40EA-AD94-3D8C830A030A}"/>
-    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{9553C3CD-6FB4-43F5-9A27-B2636CFD2C37}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{A8110BA2-C679-459E-A02A-4ABC382996A1}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{F986F916-C3D4-4800-AAAA-CCFCC51E2531}"/>
-    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{BD2A1E14-B458-4E83-B975-EA945C2488CC}"/>
-    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{C5CE55AD-57AB-4A99-8E7C-BBF8871317AB}"/>
-    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{D5B1912D-7661-44D2-BAF7-BF25229C3651}"/>
-    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{A6C65308-415E-453A-83AE-C3B0626A72AD}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{70822CCC-48E3-4AF7-BA6A-B01336A72483}"/>
-    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{7EDC33EA-E9D1-4D2D-B1A3-3CF85DAF5C72}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{00520284-64AD-4674-A4BC-7A1A20DC78A5}"/>
-    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{D2C10133-7B9A-4E26-8713-D3E72651EF31}"/>
-    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{3D327904-0100-4128-8326-84D1403BD995}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{40079F57-C2A3-4193-A890-936A031281B2}"/>
-    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{A4AAC41E-7190-405D-B8E5-A52FF795D616}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{C42938F1-C5E1-4839-A821-508DA621E3C4}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{8732CB15-8123-402D-8662-A3167E78F3E7}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{57EF90F1-97AE-4556-934E-D7BC241CB535}"/>
-    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{6CF072DC-B245-451F-995C-B160716B4E3C}"/>
-    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{0CC5F0FB-A061-42EB-A18F-E8D88C0961F5}"/>
-    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{45F4E294-7855-455E-B9DB-2FCE50507C8D}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{2C440512-39E0-44E9-AB03-49BD7B0FAEB7}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{6FB69AFC-4CC5-4D9A-8FDC-0513270BCE54}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="Convert" xr:uid="{FD5D8A44-B3BA-46D6-9BF3-2147EA81AC68}"/>
+    <hyperlink ref="A4" location="d!A1" display="d" xr:uid="{FD1FECAA-0FB4-4DAC-BD83-DDEF91714A8C}"/>
+    <hyperlink ref="A5" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{402A7560-CDAE-42BF-A5A7-4AB37E7B0CE9}"/>
+    <hyperlink ref="A6" location="Duration!A1" display="Duration" xr:uid="{942006EE-800A-4961-915C-448265FAFBC5}"/>
+    <hyperlink ref="A7" location="EnergyRate!A1" display="EnergyRate" xr:uid="{25057A51-2A1F-46FB-A2B4-6FEBB0E1D8F6}"/>
+    <hyperlink ref="A8" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{4C979A48-EFBA-4EEE-A8F3-E237C26281A7}"/>
+    <hyperlink ref="A9" location="EQ10_EnergyGen_Max!A1" display="EQ10_EnergyGen_Max" xr:uid="{84793ACA-5157-41E1-8E8B-A0A486439FFB}"/>
+    <hyperlink ref="A10" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{42836C8D-9D8F-4FD2-A6CC-6F6F0127D09D}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ12_Revenue" xr:uid="{0A12E0C2-D906-4DC2-B783-DC8BDD2EFA33}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{21E9D16B-6747-46D3-9115-BAA75C1CC859}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{322081F0-88EC-41F7-A45B-729E4DC061B5}"/>
+    <hyperlink ref="A14" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{7DC24E9A-ECCC-4423-9607-8295E510B39A}"/>
+    <hyperlink ref="A15" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{7DE6E8AF-FE04-4B68-8B48-EC9D572A73E9}"/>
+    <hyperlink ref="A16" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{F0A495E6-0CBE-45D8-B636-FAD2CB7E7194}"/>
+    <hyperlink ref="A17" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{7972D439-391E-41A9-ABE2-7D6E6648A2B4}"/>
+    <hyperlink ref="A18" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{0E66E5FC-080B-475B-A361-CC59E13C24C7}"/>
+    <hyperlink ref="A19" location="EQ8_SteadyEnergy!A1" display="EQ8_SteadyEnergy" xr:uid="{EB3A12DD-A95F-490D-833C-ADC50FD89B59}"/>
+    <hyperlink ref="A20" location="EQ9_EnergyGen!A1" display="EQ9_EnergyGen" xr:uid="{6586A773-D78D-49DA-9B1E-828A94153E33}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQa_Inflow" xr:uid="{92A19FD3-EF59-4E3B-84B2-927AC5E07F5C}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{70BFDB4E-0033-411A-BB35-7E2EC6642EA6}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{35D89BD9-97E6-41DD-A2D5-E1F5768943B3}"/>
+    <hyperlink ref="A24" location="evap!A1" display="evap" xr:uid="{59BC6C1D-F8D1-42E0-B3D5-B9469298913A}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="FStore" xr:uid="{FC4A69A1-1A50-45F5-B55D-10DC6C6214F2}"/>
+    <hyperlink ref="A26" location="Inflow!A1" display="Inflow" xr:uid="{FDCE2BBB-7984-49BC-938B-280A271D9B65}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="initstorage" xr:uid="{00810F12-4ADC-47CC-B08A-AFBDBA3B5A94}"/>
+    <hyperlink ref="A28" location="Scalar!A1" display="maxRel" xr:uid="{C2F12EA5-983D-4E9C-85DB-2D3B445C9E54}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="maxstorage" xr:uid="{D516D280-A6C3-4307-9830-66A377720862}"/>
+    <hyperlink ref="A30" location="Scalar!A1" display="minRel" xr:uid="{8666C187-872F-4769-9C51-65D70880A407}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="minstorage" xr:uid="{1E875845-FCBC-4D3C-95A8-871170988309}"/>
+    <hyperlink ref="A32" location="ModelResults!A1" display="ModelResults" xr:uid="{DCD354F8-CFC9-4C34-9E46-445D5697113A}"/>
+    <hyperlink ref="A33" location="modpar!A1" display="modpar" xr:uid="{23348855-701B-4681-B0CC-170FB4A8F99B}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{4DCE2773-87D2-4619-ABAF-99C7D01A1C07}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="ObjectiveVal" xr:uid="{F2E5C3CE-79F9-4625-9466-44E61606976B}"/>
+    <hyperlink ref="A36" location="p!A1" display="p" xr:uid="{1DB89BAE-775E-4F44-8BD9-7F741ECF2E8C}"/>
+    <hyperlink ref="A37" location="release!A1" display="release" xr:uid="{1215C290-F685-4A0F-BD13-E9F7F6DBBAC5}"/>
+    <hyperlink ref="A38" location="RStore_steady!A1" display="RStore_steady" xr:uid="{9C60062F-CB5E-4B21-9F1C-7295658630D1}"/>
+    <hyperlink ref="A39" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{188177AA-E45B-430F-9544-ACE08178389E}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sstore" xr:uid="{63A44F10-70C6-47EE-9A81-A39E03E5CD29}"/>
+    <hyperlink ref="A41" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{EB66BD91-6797-4B3A-A7B2-EA1CF284DC00}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Steady_Days" xr:uid="{B1258AC1-1ACD-4103-88F2-ADB4484013D5}"/>
+    <hyperlink ref="A43" location="Scalar!A1" display="steady_Outflow" xr:uid="{31508163-9E63-482A-8129-A40E8E4C4B4F}"/>
+    <hyperlink ref="A44" location="Scalar!A1" display="Steady_Release" xr:uid="{93BAEBA4-AC6B-41D5-B466-6CDC8B628D69}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="storage" xr:uid="{BC1602F4-77A1-47AA-B0FC-93C7AD4775AB}"/>
+    <hyperlink ref="A46" location="Scalar!A1" display="Totaldays" xr:uid="{8637D29C-3494-4040-9B65-30F612FB4BEC}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="TotMonth_volume" xr:uid="{9E020769-930D-439F-93E3-CF8B94FDB63C}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{7346BFE8-0672-470F-B43E-B3D70EA364F9}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="weekdays" xr:uid="{9638D617-98FA-4280-BDBB-25A527376D32}"/>
+    <hyperlink ref="A50" location="weekendRate!A1" display="weekendRate" xr:uid="{0A313B33-E706-4495-8C6B-87A09548A402}"/>
+    <hyperlink ref="A51" location="Scalar!A1" display="weekends" xr:uid="{B1F00F37-CD2E-4188-BF71-4DC6A853D848}"/>
+    <hyperlink ref="A52" location="Scalar!A1" display="XStore_steady" xr:uid="{63252937-C425-47D3-84D0-CCA36E543923}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="XStore_unsteady" xr:uid="{D3C7E006-9292-4DDA-8C7D-48DEA4F78B5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB53502-5FE6-4BB3-ABFA-5D6DF3938E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC4E8F7-42FF-42D1-8984-5568BBA2418B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,16 +1974,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{9FC96840-1AEA-4E53-B22A-EA5A3591218B}"/>
+  <autoFilter ref="A3:E5" xr:uid="{DFE01849-3089-40DA-AC87-9FE6629C740B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1968330A-02ED-4768-9A94-0028B948EBD0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{81861D89-B034-484A-9170-6FDA9131AE47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AC64FB-CEFE-464E-9F7B-FBAE844F6DCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EB2C94-98E5-4C92-8271-5D6F4CE95DB1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2061,16 +2061,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{388FF394-840F-42E5-82E1-F03525F4634E}"/>
+  <autoFilter ref="A3:E5" xr:uid="{371D4886-B246-4417-9E1B-75B42B500E26}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1DF0EA9B-8510-4788-924E-CB369B8579A5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6BD85011-1672-40DF-85FE-226D53B19A49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E2645A-D3FE-41DC-8628-98C2FCB70C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6F4BF-3D41-4510-AC19-5AEBEF0C0031}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2148,16 +2148,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{D24C6869-E9A4-4CAB-8798-8930B2A1F1F6}"/>
+  <autoFilter ref="A3:E5" xr:uid="{F21BED97-7B7A-4490-A1AE-FDA1793A657F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{085DCE1C-DE63-42BF-89B8-8775C0486FB3}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B921E9B6-870C-45B9-A942-528D136CA8FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837F5874-627E-4E90-9A17-BB43BCE1C9E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5662AB-BF92-4D3B-9FEA-85C2370F385A}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2196,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>3603.56</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2204,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>3603.3</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2212,7 +2212,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>3603.06</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2220,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>3602.91</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2228,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>3602.72</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2236,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>3602.52</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2244,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>3602.27</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2252,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>3602.02</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2260,7 +2260,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>3601.77</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2268,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>3601.54</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2276,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>3601.33</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2284,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>3601.18</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>3600.9</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2300,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>3600.71</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>3600.45</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2316,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>3600.18</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2324,7 +2324,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>3599.91</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2332,7 +2332,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>3599.78</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2340,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>3599.61</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2348,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>3599.34</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2356,7 +2356,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>3599.14</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2364,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>3598.94</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2372,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>3598.72</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2380,7 +2380,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3598.54</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2388,7 +2388,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>3598.34</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2396,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>3598.15</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>3597.95</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>3597.74</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2420,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>3597.52</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>3597.28</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2436,20 +2436,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>3597.12</v>
+        <v>1586</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{AFD78C0C-F3CE-459F-B2C3-1010575DDE75}"/>
+  <autoFilter ref="A3:B34" xr:uid="{04EA79F3-AF99-44F8-8802-5B5DC3534DC9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BC25CFD9-71BC-49B2-9D1C-2CB7DF642684}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E5DA1DB1-C4E4-48A6-90D7-AC39D72D848D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A4D7E6-162D-4B55-BED2-B952F222F8AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DF89A-3D5A-4051-A1A9-4F278ADFAB6A}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2488,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>1658</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2496,7 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>1655</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2504,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>1652</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2512,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>1650</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2520,7 +2520,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>1648</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2528,7 +2528,7 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>1646</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>1643</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>1640</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2552,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>1637</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>1634</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <v>1632</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>1630</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2584,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>1627</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2592,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="B17">
-        <v>1625</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2600,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>1621</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>1618</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2616,7 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>1615</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2624,7 +2624,7 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>1614</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>1612</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2640,7 +2640,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>1609</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>1607</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2656,7 +2656,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>1605</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2664,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>1603</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2672,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>1601</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2680,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>1599</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2688,7 +2688,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>1597</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2696,7 +2696,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>1595</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2704,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>1592</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2712,7 @@
         <v>66</v>
       </c>
       <c r="B32">
-        <v>1590</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2720,7 +2720,7 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>1588</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2728,20 +2728,20 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>1586</v>
+        <v>8417</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{45B14534-A202-45B6-BD36-05ED4A3B4C1D}"/>
+  <autoFilter ref="A3:B34" xr:uid="{7C1DA56C-32F4-492A-9DEA-F78186336D1B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9ED647E3-32E5-45A4-A712-15887CCF7944}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{83E9F9D5-C827-4567-BA35-5DDA61901C80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9DAAE6-CD51-4919-9548-FBA8FE6EBE67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0670EAF5-1C76-4FF6-A766-EA842B5EC15D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{765D61DA-3F45-4D2C-B2AE-3F192F93C48F}"/>
+  <autoFilter ref="A3:B5" xr:uid="{86133EAD-BFEA-4AE7-A77F-99D7F85F9878}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0A6745B4-69D3-43F9-8999-832D329F2783}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{249336EF-ACCC-44A5-A1C9-3D2F69148BFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372BFF09-E1C4-4AD1-ABCE-00BF9A698F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737F571B-E2DB-4C61-A111-09405E701FC3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2849,16 +2849,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{2C0D398C-EF4A-4A7E-891E-97BDDB81A9A1}"/>
+  <autoFilter ref="A3:A5" xr:uid="{B051B7D8-5759-46EA-9A11-EE2E45A4244B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6EBD9380-5910-436A-A94E-23DDDB5B17B5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{56847E49-8ED5-443D-8F6A-4A47D180B5B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F64C48-B81F-47AE-8479-64F96217B74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928F35DD-453F-471E-8936-D10578D1B1E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2906,16 +2906,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{B3C300CF-185C-446E-89CC-C87547A0D18D}"/>
+  <autoFilter ref="A3:A5" xr:uid="{948793E9-C4C6-440D-A300-CF6DF44C0370}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D532536A-DF1A-4A6F-A8CE-9A2B9638D62B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F6202568-3F0C-487F-B77B-08B8F9DC3339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A684529-B7FB-4D4F-8CC0-006ABC2E470D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3D827A-12CA-4124-8A64-2BCC9BDB7EDC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2966,16 +2966,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{7119BBAE-CA9E-4493-8492-BAC202D138A8}"/>
+  <autoFilter ref="A3:B5" xr:uid="{DA0BDC07-A4B1-42B6-A560-C763E38B3B8D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{182B8356-B510-4832-996B-3E04920F5183}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{71C18837-D8EB-4B4D-B63E-C63890E3107E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE19DD53-5FB8-4575-A36D-99791114C199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B7028-E8D3-4A5D-A8C4-1F842B82D832}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3026,16 +3026,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{EE6C1671-BF6E-4779-9B4D-AD8489005085}"/>
+  <autoFilter ref="A3:B5" xr:uid="{86805ED3-C320-4F1C-80D1-7AE5F040BC9E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E2C11204-F112-4317-BDDB-23CD99C66D38}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6FD5CCDA-D1D1-470F-8DB9-DAC19405CF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98946C26-E70A-459A-A387-4B5BD7F0F6A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E3B584-3ABE-4C4A-AD23-83024721983A}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3162,7 +3162,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>11167012.29776</v>
+        <v>11389586.429760002</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -3273,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>12193049.168</v>
+        <v>12354243.800000001</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>11167012.29776</v>
+        <v>11389586.429760002</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -3450,13 +3450,13 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>-111608.49999999999</v>
+        <v>-50229</v>
       </c>
       <c r="C32">
-        <v>-111608.49999999999</v>
+        <v>-50229</v>
       </c>
       <c r="D32">
-        <v>-111608.49999999999</v>
+        <v>-50229</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>8950000</v>
       </c>
       <c r="C33">
-        <v>11167012.29776</v>
+        <v>11389586.429760002</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>11167012.29776</v>
+        <v>11389586.429760002</v>
       </c>
       <c r="D34">
         <v>25000000</v>
@@ -3530,13 +3530,13 @@
         <v>152</v>
       </c>
       <c r="B36">
-        <v>12193049.168</v>
+        <v>12354243.800000001</v>
       </c>
       <c r="C36">
-        <v>12193049.168</v>
+        <v>12354243.800000001</v>
       </c>
       <c r="D36">
-        <v>12193049.168</v>
+        <v>12354243.800000001</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3587,14 +3587,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B953BA1E-2E15-4586-B350-35BFAD9FFDC5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F9D43E22-9CAE-45B1-80B5-64BC790282C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1533E18F-0FCD-49A6-A36A-50C9E38D4F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55787D1-E56B-40CA-B757-B52CCC7C7863}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3645,16 +3645,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{BD3A7C33-0E62-428A-8450-F031AA7E4D43}"/>
+  <autoFilter ref="A3:B5" xr:uid="{474D7B71-1DB4-48D5-94B7-A06AF74830E6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1F7B88E0-F4D7-4159-A431-F4114BB69CE2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F1FA8922-CAAE-407C-AC91-0D929708A35F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338F09DD-6E49-4837-AFCB-21E0833BD6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44EB35-459F-41E8-B734-6DAE828BCAB3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3732,16 +3732,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{460F8AAA-F7C4-44BD-8960-706A4955B915}"/>
+  <autoFilter ref="A3:E5" xr:uid="{03001998-3B22-47A4-B58E-B0F5E32A99F8}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E74DF7CC-8E4E-4260-AF41-E1FD29312C50}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{38FEC948-FED1-4C84-83A0-D657A5EF4BE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDAAE72-3DEE-468C-95F2-C6761B62D24B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA4F198-D93F-485A-BBAC-4BF9A966FB89}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3792,16 +3792,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{7782EDF3-A670-43BE-A9CB-B554DBD88F77}"/>
+  <autoFilter ref="A3:B5" xr:uid="{9735A5D2-92B9-48DC-8F4E-473B1D29924C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{660F0317-7B0E-406D-8C97-D33001FCD5CE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{74850C1F-2E23-4483-8998-B822233DFCF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A598343-C84C-4CA1-B073-D0C026607FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53340276-803A-4CBF-8D82-2A97A2F76C52}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3988,16 +3988,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A34" xr:uid="{CD66AD6C-0DBC-4837-B12A-1CCF1CCC0DDC}"/>
+  <autoFilter ref="A3:A34" xr:uid="{6A07A3F8-A995-4FD3-B202-673D9E4A2881}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3C7FB8B2-69D2-47E7-8B12-06D37FF60A19}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8170F977-1748-41BB-A9D5-9B3225E4782B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F149C0-6C63-44AC-AA2C-6D36ACFC7D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3DAC86-9855-42C1-87A9-88018EE1315C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4048,16 +4048,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{04570F73-8584-40FA-A67A-90E76D9AFB9C}"/>
+  <autoFilter ref="A3:B5" xr:uid="{4B5CE80A-96B9-4959-82FE-45B546F1E353}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C3E3390F-5049-4EED-B3CD-2113ECC912EA}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0E4B4251-0C58-4163-9260-3A0B3E105134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D46439-60A0-46E2-9D97-AADB5F06AC9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF208EE-9F75-4D68-86F7-FBB199F4F066}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4108,16 +4108,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{6C201431-1C14-4686-95A7-B760C1296542}"/>
+  <autoFilter ref="A3:B5" xr:uid="{9D3C1555-85EE-47FC-AE5B-F3E9732E1734}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6C15E065-9641-493C-98FE-9C629BB50B75}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DA1EBF6E-786F-426E-B994-677382DDCCEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A1929A-7B92-457B-AAE0-BB32E4E254D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D42061B-3C05-40A1-AEA7-654D9C7138CB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4195,16 +4195,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{3E786D97-B2B6-4186-BB79-C91C97BDD3EC}"/>
+  <autoFilter ref="A3:E5" xr:uid="{215EA9A7-EB25-40C3-ADEB-C89AC208A757}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FBBB7999-11E0-467A-B078-806C48874AE6}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1FBD13B1-A4B0-4115-95F6-D0D47FFA63FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82244F3-0B49-4870-84EB-CB3458247DE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F7EB92-0DC7-464D-81BE-C9569FA246D7}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4282,16 +4282,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F609E36C-7CF8-4E68-B62E-43BE86F49FB8}"/>
+  <autoFilter ref="A3:E5" xr:uid="{CEF3CEC1-7529-4B74-AD86-5F0E180A4A19}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DBBF6509-B33E-4D28-9E61-54B82A9D916D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4542F928-051F-4E7E-AA9D-74040B6E8B4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAABF86-6BA3-4894-BB57-7888811D804F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924A60B1-179E-48D3-9985-C68E95B1897E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4369,16 +4369,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{B619ED0F-FC78-42F4-87AB-CD13DDF1AB58}"/>
+  <autoFilter ref="A3:E5" xr:uid="{9FC58867-20F7-4605-92A0-69B3FA58D6EE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{01169CCA-8866-46F9-B32F-154A9CD97181}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0390E6C0-16F0-44E0-BB11-4F1B10C73673}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B5F0F-6499-4ECB-B8FC-B00C90C09723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D08D6F-D541-4363-B076-9F52DB9C0E36}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4456,9 +4456,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F613CE2E-79A1-4DC1-AE2A-70CB2E019213}"/>
+  <autoFilter ref="A3:E5" xr:uid="{39A51EEA-4F4B-4D08-AEFD-197F114C1DD9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{10F550FC-BF13-4DF5-B703-CB9F675E7B6F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D5393E8A-94D9-4636-9E05-F80046C895B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
